--- a/results_exact/1_transbordo_porto.xlsx
+++ b/results_exact/1_transbordo_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>178404.652</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,20 +485,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>178404.652</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>219279.8479999999</v>
       </c>
     </row>
     <row r="4">
@@ -514,48 +514,48 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>85517.71600000001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>729132.0560000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1823027.228</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1008177.032</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>294755.512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>390330.64</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2149828.331999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>291045.2880000002</v>
       </c>
     </row>
     <row r="7">
@@ -571,16 +571,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>240458.444</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>94696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>294755.512</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14994911.0006</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>20860855.95836001</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24050613.72863999</v>
       </c>
     </row>
     <row r="4">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14590177.52676</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86030291.28744</v>
       </c>
     </row>
     <row r="5">
@@ -684,27 +684,27 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>213166573.77004</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>172005083.42952</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>41976132.46392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>54970264.03120001</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>201696894.1082399</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>45149855.52744003</v>
       </c>
     </row>
     <row r="7">
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>28116805.85692</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9055778.48</v>
       </c>
     </row>
     <row r="8">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50288237.90232</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3328602635.1552</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3328602635.1552</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5947702741.182396</v>
       </c>
     </row>
     <row r="4">
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2554191830.8584</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>21777278769.3744</v>
       </c>
     </row>
     <row r="5">
@@ -823,27 +823,27 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>39898318155.201</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>42476897819.49615</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11180695556.7352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>14601734489.4232</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>47050605417.06898</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12262430671.22545</v>
       </c>
     </row>
     <row r="7">
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5406696090.4178</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2129234825.2</v>
       </c>
     </row>
     <row r="8">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>11180695556.7352</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1269733769.006289</v>
+        <v>1155716706.325241</v>
       </c>
       <c r="B2" t="n">
-        <v>206927009598566.2</v>
+        <v>176845044596806</v>
       </c>
     </row>
   </sheetData>
